--- a/biology/Zoologie/Indohyus/Indohyus.xlsx
+++ b/biology/Zoologie/Indohyus/Indohyus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Indohyus (« porc de l'Inde ») était un genre de petit ongulé de 10 kg environ qui vivait à l'Éocène, il y a environ 50 à 48 millions d’années. 
 Il est considéré comme un ancêtre terrestre des cétacés.
@@ -512,10 +524,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs dizaines de squelettes de ce petit mammifère ont été analysés[1]. Il a été mis au jour dans le Cachemire[2]. 
-Il a été décrit dans la revue Nature[3] par Johannes Thewissen, de l’Université de l’Ohio[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs dizaines de squelettes de ce petit mammifère ont été analysés. Il a été mis au jour dans le Cachemire. 
+Il a été décrit dans la revue Nature par Johannes Thewissen, de l’Université de l’Ohio. 
 Indohyus présente des caractéristiques propres aux cétacés. C’était un animal semi-aquatique.
 Malgré son régime alimentaire herbivore[réf. souhaitée], plusieurs spécialistes le considèrent comme un ancêtre probable des cétacés modernes.
 </t>
